--- a/Luban/Configs/Datas/BuffDatas/Buffs.xlsx
+++ b/Luban/Configs/Datas/BuffDatas/Buffs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\BuffDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0270D23-0858-4F5D-9580-8A238FFB15C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7CF44F-4A36-45D5-AA79-1661EDFC0D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="7725" windowWidth="29025" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,10 +174,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>可重载参数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>effect.BuffConstructProperties</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -200,6 +196,10 @@
   <si>
     <t>None</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重载参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -287,12 +287,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -307,28 +322,28 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -611,7 +626,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -619,102 +634,102 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="8" max="8" width="9.125" customWidth="1"/>
     <col min="9" max="9" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>37</v>
+      <c r="I3" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>600</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G4">
@@ -723,24 +738,24 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>601</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G5">
@@ -749,50 +764,50 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>602</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>603</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G7">
@@ -801,24 +816,24 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>604</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G8">
@@ -827,21 +842,21 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>605</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G9">
@@ -850,24 +865,24 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>606</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G10">
@@ -876,81 +891,81 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>43</v>
+      <c r="I10" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Luban/Configs/Datas/BuffDatas/Buffs.xlsx
+++ b/Luban/Configs/Datas/BuffDatas/Buffs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\BuffDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7CF44F-4A36-45D5-AA79-1661EDFC0D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA16B1E7-3759-4317-9798-3F0FBC4CAD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="7725" windowWidth="29025" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -199,6 +199,10 @@
   </si>
   <si>
     <t>重载参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -336,15 +340,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -626,7 +630,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -654,36 +658,36 @@
       <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -858,6 +862,9 @@
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="G9">
         <v>1</v>

--- a/Luban/Configs/Datas/BuffDatas/Buffs.xlsx
+++ b/Luban/Configs/Datas/BuffDatas/Buffs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\BuffDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA16B1E7-3759-4317-9798-3F0FBC4CAD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DC1245-1056-469A-971B-6A6A0D1EC148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10260" yWindow="4620" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -349,6 +349,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -630,22 +633,22 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="9.08203125" customWidth="1"/>
     <col min="9" max="9" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -668,7 +671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -691,7 +694,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -720,9 +723,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
-        <v>600</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="11">
+        <v>21000000</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -746,9 +749,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
-        <v>601</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="11">
+        <v>21000001</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -772,9 +775,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <v>602</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
+        <v>21000002</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -798,9 +801,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <v>603</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
+        <v>21000003</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -824,9 +827,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
-        <v>604</v>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
+        <v>21000004</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
@@ -850,9 +853,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <v>605</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="11">
+        <v>21000005</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>31</v>
@@ -876,9 +879,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <v>606</v>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="11">
+        <v>21000006</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -902,75 +905,75 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
@@ -981,6 +984,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>